--- a/Template files/KL 60 Curve.xlsx
+++ b/Template files/KL 60 Curve.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOKA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TOKA\source\repos\WFC\Template files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18D1AB1-1639-474C-BEB1-7F0245D1AFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5A2D5F-5098-4506-98B0-EACDC5F34B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{36ABCDD4-A872-455E-92FA-A5E7DC5846CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="KL60_Curve" sheetId="1" r:id="rId1"/>
+    <sheet name="CurveData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -428,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA3D469-FC16-4C79-BE8E-638E3BB2705C}">
   <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -448,7 +450,7 @@
         <v>1.5</v>
       </c>
       <c r="B2" s="1">
-        <f>-6.04340185362083/(A2^2)+11.0088604825831/A2+-1.96121943749681</f>
+        <f t="shared" ref="B2:B65" si="0">-6.04340185362083/(A2^2)+11.0088604825831/A2+-1.96121943749681</f>
         <v>2.6920645048382204</v>
       </c>
     </row>
@@ -457,7 +459,7 @@
         <v>1.51</v>
       </c>
       <c r="B3" s="1">
-        <f>-6.04340185362083/(A3^2)+11.0088604825831/A3+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.678918045543254</v>
       </c>
     </row>
@@ -466,7 +468,7 @@
         <v>1.52</v>
       </c>
       <c r="B4" s="1">
-        <f>-6.04340185362083/(A4^2)+11.0088604825831/A4+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.6657135957032772</v>
       </c>
     </row>
@@ -475,7 +477,7 @@
         <v>1.53</v>
       </c>
       <c r="B5" s="1">
-        <f>-6.04340185362083/(A5^2)+11.0088604825831/A5+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.6524567916164843</v>
       </c>
     </row>
@@ -484,7 +486,7 @@
         <v>1.54</v>
       </c>
       <c r="B6" s="1">
-        <f>-6.04340185362083/(A6^2)+11.0088604825831/A6+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.6391530070794849</v>
       </c>
     </row>
@@ -493,7 +495,7 @@
         <v>1.55</v>
       </c>
       <c r="B7" s="1">
-        <f>-6.04340185362083/(A7^2)+11.0088604825831/A7+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.625807365576228</v>
       </c>
     </row>
@@ -502,7 +504,7 @@
         <v>1.56</v>
       </c>
       <c r="B8" s="1">
-        <f>-6.04340185362083/(A8^2)+11.0088604825831/A8+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.6124247518559205</v>
       </c>
     </row>
@@ -511,7 +513,7 @@
         <v>1.57</v>
       </c>
       <c r="B9" s="1">
-        <f>-6.04340185362083/(A9^2)+11.0088604825831/A9+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.5990098229334846</v>
       </c>
     </row>
@@ -520,7 +522,7 @@
         <v>1.58</v>
       </c>
       <c r="B10" s="1">
-        <f>-6.04340185362083/(A10^2)+11.0088604825831/A10+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.5855670185440758</v>
       </c>
     </row>
@@ -529,7 +531,7 @@
         <v>1.59</v>
       </c>
       <c r="B11" s="1">
-        <f>-6.04340185362083/(A11^2)+11.0088604825831/A11+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.5721005710812914</v>
       </c>
     </row>
@@ -538,7 +540,7 @@
         <v>1.6</v>
       </c>
       <c r="B12" s="1">
-        <f>-6.04340185362083/(A12^2)+11.0088604825831/A12+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.5586145150469903</v>
       </c>
     </row>
@@ -547,7 +549,7 @@
         <v>1.61</v>
       </c>
       <c r="B13" s="1">
-        <f>-6.04340185362083/(A13^2)+11.0088604825831/A13+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.5451126960389168</v>
       </c>
     </row>
@@ -556,7 +558,7 @@
         <v>1.62</v>
       </c>
       <c r="B14" s="1">
-        <f>-6.04340185362083/(A14^2)+11.0088604825831/A14+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.5315987793008539</v>
       </c>
     </row>
@@ -565,7 +567,7 @@
         <v>1.63</v>
       </c>
       <c r="B15" s="1">
-        <f>-6.04340185362083/(A15^2)+11.0088604825831/A15+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.5180762578585369</v>
       </c>
     </row>
@@ -574,7 +576,7 @@
         <v>1.64</v>
       </c>
       <c r="B16" s="1">
-        <f>-6.04340185362083/(A16^2)+11.0088604825831/A16+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.5045484602632477</v>
       </c>
     </row>
@@ -583,7 +585,7 @@
         <v>1.65</v>
       </c>
       <c r="B17" s="1">
-        <f>-6.04340185362083/(A17^2)+11.0088604825831/A17+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.4910185579637165</v>
       </c>
     </row>
@@ -592,7 +594,7 @@
         <v>1.66</v>
       </c>
       <c r="B18" s="1">
-        <f>-6.04340185362083/(A18^2)+11.0088604825831/A18+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.4774895723257746</v>
       </c>
     </row>
@@ -601,7 +603,7 @@
         <v>1.67</v>
       </c>
       <c r="B19" s="1">
-        <f>-6.04340185362083/(A19^2)+11.0088604825831/A19+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.4639643813181156</v>
       </c>
     </row>
@@ -610,7 +612,7 @@
         <v>1.68</v>
       </c>
       <c r="B20" s="1">
-        <f>-6.04340185362083/(A20^2)+11.0088604825831/A20+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.4504457258814414</v>
       </c>
     </row>
@@ -619,7 +621,7 @@
         <v>1.69</v>
       </c>
       <c r="B21" s="1">
-        <f>-6.04340185362083/(A21^2)+11.0088604825831/A21+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.4369362159973278</v>
       </c>
     </row>
@@ -628,7 +630,7 @@
         <v>1.7</v>
       </c>
       <c r="B22" s="1">
-        <f>-6.04340185362083/(A22^2)+11.0088604825831/A22+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.4234383364721994</v>
       </c>
     </row>
@@ -637,7 +639,7 @@
         <v>1.71</v>
       </c>
       <c r="B23" s="1">
-        <f>-6.04340185362083/(A23^2)+11.0088604825831/A23+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.4099544524509575</v>
       </c>
     </row>
@@ -646,7 +648,7 @@
         <v>1.72</v>
       </c>
       <c r="B24" s="1">
-        <f>-6.04340185362083/(A24^2)+11.0088604825831/A24+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.3964868146739917</v>
       </c>
     </row>
@@ -655,7 +657,7 @@
         <v>1.73</v>
       </c>
       <c r="B25" s="1">
-        <f>-6.04340185362083/(A25^2)+11.0088604825831/A25+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.3830375644905377</v>
       </c>
     </row>
@@ -664,7 +666,7 @@
         <v>1.74</v>
       </c>
       <c r="B26" s="1">
-        <f>-6.04340185362083/(A26^2)+11.0088604825831/A26+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.3696087386406468</v>
       </c>
     </row>
@@ -673,7 +675,7 @@
         <v>1.75</v>
       </c>
       <c r="B27" s="1">
-        <f>-6.04340185362083/(A27^2)+11.0088604825831/A27+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.3562022738173427</v>
       </c>
     </row>
@@ -682,7 +684,7 @@
         <v>1.76</v>
       </c>
       <c r="B28" s="1">
-        <f>-6.04340185362083/(A28^2)+11.0088604825831/A28+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.3428200110199198</v>
       </c>
     </row>
@@ -691,7 +693,7 @@
         <v>1.77</v>
       </c>
       <c r="B29" s="1">
-        <f>-6.04340185362083/(A29^2)+11.0088604825831/A29+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.3294636997087359</v>
       </c>
     </row>
@@ -700,7 +702,7 @@
         <v>1.78</v>
       </c>
       <c r="B30" s="1">
-        <f>-6.04340185362083/(A30^2)+11.0088604825831/A30+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.3161350017713023</v>
       </c>
     </row>
@@ -709,7 +711,7 @@
         <v>1.79</v>
       </c>
       <c r="B31" s="1">
-        <f>-6.04340185362083/(A31^2)+11.0088604825831/A31+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.302835495308944</v>
       </c>
     </row>
@@ -718,7 +720,7 @@
         <v>1.8</v>
       </c>
       <c r="B32" s="1">
-        <f>-6.04340185362083/(A32^2)+11.0088604825831/A32+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.289566678252803</v>
       </c>
     </row>
@@ -727,7 +729,7 @@
         <v>1.81</v>
       </c>
       <c r="B33" s="1">
-        <f>-6.04340185362083/(A33^2)+11.0088604825831/A33+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.2763299718174892</v>
       </c>
     </row>
@@ -736,7 +738,7 @@
         <v>1.82</v>
       </c>
       <c r="B34" s="1">
-        <f>-6.04340185362083/(A34^2)+11.0088604825831/A34+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.2631267238002586</v>
       </c>
     </row>
@@ -745,7 +747,7 @@
         <v>1.83</v>
       </c>
       <c r="B35" s="1">
-        <f>-6.04340185362083/(A35^2)+11.0088604825831/A35+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.2499582117331585</v>
       </c>
     </row>
@@ -754,7 +756,7 @@
         <v>1.84</v>
       </c>
       <c r="B36" s="1">
-        <f>-6.04340185362083/(A36^2)+11.0088604825831/A36+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.236825645895224</v>
       </c>
     </row>
@@ -763,7 +765,7 @@
         <v>1.85</v>
       </c>
       <c r="B37" s="1">
-        <f>-6.04340185362083/(A37^2)+11.0088604825831/A37+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.2237301721914005</v>
       </c>
     </row>
@@ -772,7 +774,7 @@
         <v>1.86</v>
       </c>
       <c r="B38" s="1">
-        <f>-6.04340185362083/(A38^2)+11.0088604825831/A38+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.2106728749045468</v>
       </c>
     </row>
@@ -781,7 +783,7 @@
         <v>1.87</v>
       </c>
       <c r="B39" s="1">
-        <f>-6.04340185362083/(A39^2)+11.0088604825831/A39+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.1976547793265375</v>
       </c>
     </row>
@@ -790,7 +792,7 @@
         <v>1.88</v>
       </c>
       <c r="B40" s="1">
-        <f>-6.04340185362083/(A40^2)+11.0088604825831/A40+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.1846768542741826</v>
       </c>
     </row>
@@ -799,7 +801,7 @@
         <v>1.89</v>
       </c>
       <c r="B41" s="1">
-        <f>-6.04340185362083/(A41^2)+11.0088604825831/A41+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.1717400144953594</v>
       </c>
     </row>
@@ -808,7 +810,7 @@
         <v>1.9</v>
       </c>
       <c r="B42" s="1">
-        <f>-6.04340185362083/(A42^2)+11.0088604825831/A42+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.1588451229705194</v>
       </c>
     </row>
@@ -817,7 +819,7 @@
         <v>1.91</v>
       </c>
       <c r="B43" s="1">
-        <f>-6.04340185362083/(A43^2)+11.0088604825831/A43+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.1459929931144366</v>
       </c>
     </row>
@@ -826,7 +828,7 @@
         <v>1.92</v>
       </c>
       <c r="B44" s="1">
-        <f>-6.04340185362083/(A44^2)+11.0088604825831/A44+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.1331843908828336</v>
       </c>
     </row>
@@ -835,7 +837,7 @@
         <v>1.93</v>
       </c>
       <c r="B45" s="1">
-        <f>-6.04340185362083/(A45^2)+11.0088604825831/A45+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.1204200367882855</v>
       </c>
     </row>
@@ -844,7 +846,7 @@
         <v>1.94</v>
       </c>
       <c r="B46" s="1">
-        <f>-6.04340185362083/(A46^2)+11.0088604825831/A46+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.1077006078295746</v>
       </c>
     </row>
@@ -853,7 +855,7 @@
         <v>1.95</v>
       </c>
       <c r="B47" s="1">
-        <f>-6.04340185362083/(A47^2)+11.0088604825831/A47+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.0950267393384863</v>
       </c>
     </row>
@@ -862,7 +864,7 @@
         <v>1.96</v>
       </c>
       <c r="B48" s="1">
-        <f>-6.04340185362083/(A48^2)+11.0088604825831/A48+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.0823990267477868</v>
       </c>
     </row>
@@ -871,7 +873,7 @@
         <v>1.97</v>
       </c>
       <c r="B49" s="1">
-        <f>-6.04340185362083/(A49^2)+11.0088604825831/A49+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.0698180272840077</v>
       </c>
     </row>
@@ -880,7 +882,7 @@
         <v>1.98</v>
       </c>
       <c r="B50" s="1">
-        <f>-6.04340185362083/(A50^2)+11.0088604825831/A50+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.0572842615884124</v>
       </c>
     </row>
@@ -889,7 +891,7 @@
         <v>1.99</v>
       </c>
       <c r="B51" s="1">
-        <f>-6.04340185362083/(A51^2)+11.0088604825831/A51+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.0447982152694166</v>
       </c>
     </row>
@@ -898,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1">
-        <f>-6.04340185362083/(A52^2)+11.0088604825831/A52+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.0323603403895323</v>
       </c>
     </row>
@@ -907,7 +909,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="B53" s="1">
-        <f>-6.04340185362083/(A53^2)+11.0088604825831/A53+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.019971056889764</v>
       </c>
     </row>
@@ -916,7 +918,7 @@
         <v>2.02</v>
       </c>
       <c r="B54" s="1">
-        <f>-6.04340185362083/(A54^2)+11.0088604825831/A54+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>2.007630753954281</v>
       </c>
     </row>
@@ -925,7 +927,7 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="B55" s="1">
-        <f>-6.04340185362083/(A55^2)+11.0088604825831/A55+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.9953397913179785</v>
       </c>
     </row>
@@ -934,7 +936,7 @@
         <v>2.04</v>
       </c>
       <c r="B56" s="1">
-        <f>-6.04340185362083/(A56^2)+11.0088604825831/A56+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.9830985005195034</v>
       </c>
     </row>
@@ -943,7 +945,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="B57" s="1">
-        <f>-6.04340185362083/(A57^2)+11.0088604825831/A57+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.9709071861021255</v>
       </c>
     </row>
@@ -952,7 +954,7 @@
         <v>2.06</v>
       </c>
       <c r="B58" s="1">
-        <f>-6.04340185362083/(A58^2)+11.0088604825831/A58+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.9587661267647489</v>
       </c>
     </row>
@@ -961,7 +963,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="B59" s="1">
-        <f>-6.04340185362083/(A59^2)+11.0088604825831/A59+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.9466755764652863</v>
       </c>
     </row>
@@ -970,7 +972,7 @@
         <v>2.08</v>
       </c>
       <c r="B60" s="1">
-        <f>-6.04340185362083/(A60^2)+11.0088604825831/A60+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.9346357654784161</v>
       </c>
     </row>
@@ -979,7 +981,7 @@
         <v>2.09</v>
       </c>
       <c r="B61" s="1">
-        <f>-6.04340185362083/(A61^2)+11.0088604825831/A61+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.9226469014097736</v>
       </c>
     </row>
@@ -988,7 +990,7 @@
         <v>2.1</v>
       </c>
       <c r="B62" s="1">
-        <f>-6.04340185362083/(A62^2)+11.0088604825831/A62+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.9107091701684229</v>
       </c>
     </row>
@@ -997,7 +999,7 @@
         <v>2.11</v>
       </c>
       <c r="B63" s="1">
-        <f>-6.04340185362083/(A63^2)+11.0088604825831/A63+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.8988227368994319</v>
       </c>
     </row>
@@ -1006,7 +1008,7 @@
         <v>2.12</v>
       </c>
       <c r="B64" s="1">
-        <f>-6.04340185362083/(A64^2)+11.0088604825831/A64+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.8869877468782656</v>
       </c>
     </row>
@@ -1015,7 +1017,7 @@
         <v>2.13</v>
       </c>
       <c r="B65" s="1">
-        <f>-6.04340185362083/(A65^2)+11.0088604825831/A65+-1.96121943749681</f>
+        <f t="shared" si="0"/>
         <v>1.8752043263686426</v>
       </c>
     </row>
@@ -1024,7 +1026,7 @@
         <v>2.14</v>
       </c>
       <c r="B66" s="1">
-        <f>-6.04340185362083/(A66^2)+11.0088604825831/A66+-1.96121943749681</f>
+        <f t="shared" ref="B66:B129" si="1">-6.04340185362083/(A66^2)+11.0088604825831/A66+-1.96121943749681</f>
         <v>1.863472583445412</v>
       </c>
     </row>
@@ -1033,7 +1035,7 @@
         <v>2.15</v>
       </c>
       <c r="B67" s="1">
-        <f>-6.04340185362083/(A67^2)+11.0088604825831/A67+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.8517926087839542</v>
       </c>
     </row>
@@ -1042,7 +1044,7 @@
         <v>2.16</v>
       </c>
       <c r="B68" s="1">
-        <f>-6.04340185362083/(A68^2)+11.0088604825831/A68+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.8401644764175129</v>
       </c>
     </row>
@@ -1051,7 +1053,7 @@
         <v>2.17</v>
       </c>
       <c r="B69" s="1">
-        <f>-6.04340185362083/(A69^2)+11.0088604825831/A69+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.8285882444638377</v>
       </c>
     </row>
@@ -1060,7 +1062,7 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="B70" s="1">
-        <f>-6.04340185362083/(A70^2)+11.0088604825831/A70+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.8170639558224242</v>
       </c>
     </row>
@@ -1069,7 +1071,7 @@
         <v>2.19</v>
       </c>
       <c r="B71" s="1">
-        <f>-6.04340185362083/(A71^2)+11.0088604825831/A71+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.8055916388435824</v>
       </c>
     </row>
@@ -1078,7 +1080,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B72" s="1">
-        <f>-6.04340185362083/(A72^2)+11.0088604825831/A72+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.7941713079705426</v>
       </c>
     </row>
@@ -1087,7 +1089,7 @@
         <v>2.21</v>
       </c>
       <c r="B73" s="1">
-        <f>-6.04340185362083/(A73^2)+11.0088604825831/A73+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.7828029643556949</v>
       </c>
     </row>
@@ -1096,7 +1098,7 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="B74" s="1">
-        <f>-6.04340185362083/(A74^2)+11.0088604825831/A74+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.7714865964520679</v>
       </c>
     </row>
@@ -1105,7 +1107,7 @@
         <v>2.23</v>
       </c>
       <c r="B75" s="1">
-        <f>-6.04340185362083/(A75^2)+11.0088604825831/A75+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.7602221805810683</v>
       </c>
     </row>
@@ -1114,7 +1116,7 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="B76" s="1">
-        <f>-6.04340185362083/(A76^2)+11.0088604825831/A76+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.7490096814774632</v>
       </c>
     </row>
@@ -1123,7 +1125,7 @@
         <v>2.25</v>
       </c>
       <c r="B77" s="1">
-        <f>-6.04340185362083/(A77^2)+11.0088604825831/A77+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.7378490528125512</v>
       </c>
     </row>
@@ -1132,7 +1134,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="B78" s="1">
-        <f>-6.04340185362083/(A78^2)+11.0088604825831/A78+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.7267402376964263</v>
       </c>
     </row>
@@ -1141,7 +1143,7 @@
         <v>2.27</v>
       </c>
       <c r="B79" s="1">
-        <f>-6.04340185362083/(A79^2)+11.0088604825831/A79+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.7156831691601802</v>
       </c>
     </row>
@@ -1150,7 +1152,7 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="B80" s="1">
-        <f>-6.04340185362083/(A80^2)+11.0088604825831/A80+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.7046777706188865</v>
       </c>
     </row>
@@ -1159,7 +1161,7 @@
         <v>2.29</v>
       </c>
       <c r="B81" s="1">
-        <f>-6.04340185362083/(A81^2)+11.0088604825831/A81+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.6937239563161353</v>
       </c>
     </row>
@@ -1168,7 +1170,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B82" s="1">
-        <f>-6.04340185362083/(A82^2)+11.0088604825831/A82+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.6828216317508835</v>
       </c>
     </row>
@@ -1177,7 +1179,7 @@
         <v>2.31</v>
       </c>
       <c r="B83" s="1">
-        <f>-6.04340185362083/(A83^2)+11.0088604825831/A83+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.67197069408733</v>
       </c>
     </row>
@@ -1186,7 +1188,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="B84" s="1">
-        <f>-6.04340185362083/(A84^2)+11.0088604825831/A84+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.6611710325485165</v>
       </c>
     </row>
@@ -1195,7 +1197,7 @@
         <v>2.33</v>
       </c>
       <c r="B85" s="1">
-        <f>-6.04340185362083/(A85^2)+11.0088604825831/A85+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.6504225287942973</v>
       </c>
     </row>
@@ -1204,7 +1206,7 @@
         <v>2.34</v>
       </c>
       <c r="B86" s="1">
-        <f>-6.04340185362083/(A86^2)+11.0088604825831/A86+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.639725057284332</v>
       </c>
     </row>
@@ -1213,7 +1215,7 @@
         <v>2.35</v>
       </c>
       <c r="B87" s="1">
-        <f>-6.04340185362083/(A87^2)+11.0088604825831/A87+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.6290784856266762</v>
       </c>
     </row>
@@ -1222,7 +1224,7 @@
         <v>2.36</v>
       </c>
       <c r="B88" s="1">
-        <f>-6.04340185362083/(A88^2)+11.0088604825831/A88+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.6184826749125707</v>
       </c>
     </row>
@@ -1231,7 +1233,7 @@
         <v>2.37</v>
       </c>
       <c r="B89" s="1">
-        <f>-6.04340185362083/(A89^2)+11.0088604825831/A89+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.6079374800379711</v>
       </c>
     </row>
@@ -1240,7 +1242,7 @@
         <v>2.38</v>
       </c>
       <c r="B90" s="1">
-        <f>-6.04340185362083/(A90^2)+11.0088604825831/A90+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5974427500123605</v>
       </c>
     </row>
@@ -1249,7 +1251,7 @@
         <v>2.39</v>
       </c>
       <c r="B91" s="1">
-        <f>-6.04340185362083/(A91^2)+11.0088604825831/A91+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5869983282553257</v>
       </c>
     </row>
@@ -1258,7 +1260,7 @@
         <v>2.4</v>
       </c>
       <c r="B92" s="1">
-        <f>-6.04340185362083/(A92^2)+11.0088604825831/A92+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5766040528814205</v>
       </c>
     </row>
@@ -1267,7 +1269,7 @@
         <v>2.41</v>
       </c>
       <c r="B93" s="1">
-        <f>-6.04340185362083/(A93^2)+11.0088604825831/A93+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5662597569737462</v>
       </c>
     </row>
@@ -1276,7 +1278,7 @@
         <v>2.42</v>
       </c>
       <c r="B94" s="1">
-        <f>-6.04340185362083/(A94^2)+11.0088604825831/A94+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5559652688467234</v>
       </c>
     </row>
@@ -1285,7 +1287,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="B95" s="1">
-        <f>-6.04340185362083/(A95^2)+11.0088604825831/A95+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5457204122984616</v>
       </c>
     </row>
@@ -1294,7 +1296,7 @@
         <v>2.44</v>
       </c>
       <c r="B96" s="1">
-        <f>-6.04340185362083/(A96^2)+11.0088604825831/A96+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5355250068531523</v>
       </c>
     </row>
@@ -1303,7 +1305,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="B97" s="1">
-        <f>-6.04340185362083/(A97^2)+11.0088604825831/A97+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5253788679938627</v>
       </c>
     </row>
@@ -1312,7 +1314,7 @@
         <v>2.46</v>
       </c>
       <c r="B98" s="1">
-        <f>-6.04340185362083/(A98^2)+11.0088604825831/A98+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5152818073861287</v>
       </c>
     </row>
@@ -1321,7 +1323,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="B99" s="1">
-        <f>-6.04340185362083/(A99^2)+11.0088604825831/A99+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.5052336330926808</v>
       </c>
     </row>
@@ -1330,7 +1332,7 @@
         <v>2.48</v>
       </c>
       <c r="B100" s="1">
-        <f>-6.04340185362083/(A100^2)+11.0088604825831/A100+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.4952341497796688</v>
       </c>
     </row>
@@ -1339,7 +1341,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="B101" s="1">
-        <f>-6.04340185362083/(A101^2)+11.0088604825831/A101+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.4852831589147135</v>
       </c>
     </row>
@@ -1348,7 +1350,7 @@
         <v>2.5</v>
       </c>
       <c r="B102" s="1">
-        <f>-6.04340185362083/(A102^2)+11.0088604825831/A102+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.4753804589570965</v>
       </c>
     </row>
@@ -1357,7 +1359,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="B103" s="1">
-        <f>-6.04340185362083/(A103^2)+11.0088604825831/A103+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.4655258455404037</v>
       </c>
     </row>
@@ -1366,7 +1368,7 @@
         <v>2.52</v>
       </c>
       <c r="B104" s="1">
-        <f>-6.04340185362083/(A104^2)+11.0088604825831/A104+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.455719111647902</v>
       </c>
     </row>
@@ -1375,7 +1377,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="B105" s="1">
-        <f>-6.04340185362083/(A105^2)+11.0088604825831/A105+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.4459600477809504</v>
       </c>
     </row>
@@ -1384,7 +1386,7 @@
         <v>2.54</v>
       </c>
       <c r="B106" s="1">
-        <f>-6.04340185362083/(A106^2)+11.0088604825831/A106+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.4362484421206869</v>
       </c>
     </row>
@@ -1393,7 +1395,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="B107" s="1">
-        <f>-6.04340185362083/(A107^2)+11.0088604825831/A107+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.4265840806832861</v>
       </c>
     </row>
@@ -1402,7 +1404,7 @@
         <v>2.56</v>
       </c>
       <c r="B108" s="1">
-        <f>-6.04340185362083/(A108^2)+11.0088604825831/A108+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.4169667474689958</v>
       </c>
     </row>
@@ -1411,7 +1413,7 @@
         <v>2.57</v>
       </c>
       <c r="B109" s="1">
-        <f>-6.04340185362083/(A109^2)+11.0088604825831/A109+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.4073962246052256</v>
       </c>
     </row>
@@ -1420,7 +1422,7 @@
         <v>2.58</v>
       </c>
       <c r="B110" s="1">
-        <f>-6.04340185362083/(A110^2)+11.0088604825831/A110+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.3978722924838951</v>
       </c>
     </row>
@@ -1429,7 +1431,7 @@
         <v>2.59</v>
       </c>
       <c r="B111" s="1">
-        <f>-6.04340185362083/(A111^2)+11.0088604825831/A111+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.38839472989327</v>
       </c>
     </row>
@@ -1438,7 +1440,7 @@
         <v>2.6</v>
       </c>
       <c r="B112" s="1">
-        <f>-6.04340185362083/(A112^2)+11.0088604825831/A112+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.3789633141444952</v>
       </c>
     </row>
@@ -1447,7 +1449,7 @@
         <v>2.61</v>
       </c>
       <c r="B113" s="1">
-        <f>-6.04340185362083/(A113^2)+11.0088604825831/A113+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.3695778211930298</v>
       </c>
     </row>
@@ -1456,7 +1458,7 @@
         <v>2.62</v>
       </c>
       <c r="B114" s="1">
-        <f>-6.04340185362083/(A114^2)+11.0088604825831/A114+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.3602380257551696</v>
       </c>
     </row>
@@ -1465,7 +1467,7 @@
         <v>2.63</v>
       </c>
       <c r="B115" s="1">
-        <f>-6.04340185362083/(A115^2)+11.0088604825831/A115+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.3509437014198606</v>
       </c>
     </row>
@@ -1474,7 +1476,7 @@
         <v>2.64</v>
       </c>
       <c r="B116" s="1">
-        <f>-6.04340185362083/(A116^2)+11.0088604825831/A116+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.3416946207559663</v>
       </c>
     </row>
@@ -1483,7 +1485,7 @@
         <v>2.65</v>
       </c>
       <c r="B117" s="1">
-        <f>-6.04340185362083/(A117^2)+11.0088604825831/A117+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.3324905554151709</v>
       </c>
     </row>
@@ -1492,7 +1494,7 @@
         <v>2.66</v>
       </c>
       <c r="B118" s="1">
-        <f>-6.04340185362083/(A118^2)+11.0088604825831/A118+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.3233312762306781</v>
       </c>
     </row>
@@ -1501,7 +1503,7 @@
         <v>2.67</v>
       </c>
       <c r="B119" s="1">
-        <f>-6.04340185362083/(A119^2)+11.0088604825831/A119+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.314216553311877</v>
       </c>
     </row>
@@ -1510,7 +1512,7 @@
         <v>2.68</v>
       </c>
       <c r="B120" s="1">
-        <f>-6.04340185362083/(A120^2)+11.0088604825831/A120+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.3051461561351061</v>
       </c>
     </row>
@@ -1519,7 +1521,7 @@
         <v>2.69</v>
       </c>
       <c r="B121" s="1">
-        <f>-6.04340185362083/(A121^2)+11.0088604825831/A121+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.2961198536306904</v>
       </c>
     </row>
@@ -1528,7 +1530,7 @@
         <v>2.7</v>
       </c>
       <c r="B122" s="1">
-        <f>-6.04340185362083/(A122^2)+11.0088604825831/A122+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.2871374142663641</v>
       </c>
     </row>
@@ -1537,7 +1539,7 @@
         <v>2.71</v>
       </c>
       <c r="B123" s="1">
-        <f>-6.04340185362083/(A123^2)+11.0088604825831/A123+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.2781986061272377</v>
       </c>
     </row>
@@ -1546,7 +1548,7 @@
         <v>2.72</v>
       </c>
       <c r="B124" s="1">
-        <f>-6.04340185362083/(A124^2)+11.0088604825831/A124+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.2693031969924309</v>
       </c>
     </row>
@@ -1555,7 +1557,7 @@
         <v>2.73</v>
       </c>
       <c r="B125" s="1">
-        <f>-6.04340185362083/(A125^2)+11.0088604825831/A125+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.260450954408493</v>
       </c>
     </row>
@@ -1564,7 +1566,7 @@
         <v>2.74</v>
       </c>
       <c r="B126" s="1">
-        <f>-6.04340185362083/(A126^2)+11.0088604825831/A126+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.2516416457597386</v>
       </c>
     </row>
@@ -1573,7 +1575,7 @@
         <v>2.75</v>
       </c>
       <c r="B127" s="1">
-        <f>-6.04340185362083/(A127^2)+11.0088604825831/A127+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.2428750383356124</v>
       </c>
     </row>
@@ -1582,7 +1584,7 @@
         <v>2.76</v>
       </c>
       <c r="B128" s="1">
-        <f>-6.04340185362083/(A128^2)+11.0088604825831/A128+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.2341508993951933</v>
       </c>
     </row>
@@ -1591,7 +1593,7 @@
         <v>2.77</v>
       </c>
       <c r="B129" s="1">
-        <f>-6.04340185362083/(A129^2)+11.0088604825831/A129+-1.96121943749681</f>
+        <f t="shared" si="1"/>
         <v>1.225468996228946</v>
       </c>
     </row>
@@ -1600,7 +1602,7 @@
         <v>2.78</v>
       </c>
       <c r="B130" s="1">
-        <f>-6.04340185362083/(A130^2)+11.0088604825831/A130+-1.96121943749681</f>
+        <f t="shared" ref="B130:B193" si="2">-6.04340185362083/(A130^2)+11.0088604825831/A130+-1.96121943749681</f>
         <v>1.2168290962178248</v>
       </c>
     </row>
@@ -1609,7 +1611,7 @@
         <v>2.79</v>
       </c>
       <c r="B131" s="1">
-        <f>-6.04340185362083/(A131^2)+11.0088604825831/A131+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.2082309668898266</v>
       </c>
     </row>
@@ -1618,7 +1620,7 @@
         <v>2.8</v>
       </c>
       <c r="B132" s="1">
-        <f>-6.04340185362083/(A132^2)+11.0088604825831/A132+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1996743759740893</v>
       </c>
     </row>
@@ -1627,7 +1629,7 @@
         <v>2.81</v>
       </c>
       <c r="B133" s="1">
-        <f>-6.04340185362083/(A133^2)+11.0088604825831/A133+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1911590914526309</v>
       </c>
     </row>
@@ -1636,7 +1638,7 @@
         <v>2.82</v>
       </c>
       <c r="B134" s="1">
-        <f>-6.04340185362083/(A134^2)+11.0088604825831/A134+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.182684881609813</v>
       </c>
     </row>
@@ -1645,7 +1647,7 @@
         <v>2.83</v>
       </c>
       <c r="B135" s="1">
-        <f>-6.04340185362083/(A135^2)+11.0088604825831/A135+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1742515150796164</v>
       </c>
     </row>
@@ -1654,7 +1656,7 @@
         <v>2.84</v>
       </c>
       <c r="B136" s="1">
-        <f>-6.04340185362083/(A136^2)+11.0088604825831/A136+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1658587608908084</v>
       </c>
     </row>
@@ -1663,7 +1665,7 @@
         <v>2.85</v>
       </c>
       <c r="B137" s="1">
-        <f>-6.04340185362083/(A137^2)+11.0088604825831/A137+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1575063885100849</v>
       </c>
     </row>
@@ -1672,7 +1674,7 @@
         <v>2.86</v>
       </c>
       <c r="B138" s="1">
-        <f>-6.04340185362083/(A138^2)+11.0088604825831/A138+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1491941678832613</v>
       </c>
     </row>
@@ -1681,7 +1683,7 @@
         <v>2.87</v>
       </c>
       <c r="B139" s="1">
-        <f>-6.04340185362083/(A139^2)+11.0088604825831/A139+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1409218694745829</v>
       </c>
     </row>
@@ -1690,7 +1692,7 @@
         <v>2.88</v>
       </c>
       <c r="B140" s="1">
-        <f>-6.04340185362083/(A140^2)+11.0088604825831/A140+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1326892643042241</v>
       </c>
     </row>
@@ -1699,7 +1701,7 @@
         <v>2.89</v>
       </c>
       <c r="B141" s="1">
-        <f>-6.04340185362083/(A141^2)+11.0088604825831/A141+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1244961239840541</v>
       </c>
     </row>
@@ -1708,7 +1710,7 @@
         <v>2.9</v>
       </c>
       <c r="B142" s="1">
-        <f>-6.04340185362083/(A142^2)+11.0088604825831/A142+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1163422207517224</v>
       </c>
     </row>
@@ -1717,7 +1719,7 @@
         <v>2.91</v>
       </c>
       <c r="B143" s="1">
-        <f>-6.04340185362083/(A143^2)+11.0088604825831/A143+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.1082273275031296</v>
       </c>
     </row>
@@ -1726,7 +1728,7 @@
         <v>2.92</v>
       </c>
       <c r="B144" s="1">
-        <f>-6.04340185362083/(A144^2)+11.0088604825831/A144+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.100151217823351</v>
       </c>
     </row>
@@ -1735,7 +1737,7 @@
         <v>2.93</v>
       </c>
       <c r="B145" s="1">
-        <f>-6.04340185362083/(A145^2)+11.0088604825831/A145+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.0921136660160615</v>
       </c>
     </row>
@@ -1744,7 +1746,7 @@
         <v>2.94</v>
       </c>
       <c r="B146" s="1">
-        <f>-6.04340185362083/(A146^2)+11.0088604825831/A146+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.0841144471315254</v>
       </c>
     </row>
@@ -1753,7 +1755,7 @@
         <v>2.95</v>
       </c>
       <c r="B147" s="1">
-        <f>-6.04340185362083/(A147^2)+11.0088604825831/A147+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.0761533369931999</v>
       </c>
     </row>
@@ -1762,7 +1764,7 @@
         <v>2.96</v>
       </c>
       <c r="B148" s="1">
-        <f>-6.04340185362083/(A148^2)+11.0088604825831/A148+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.068230112223006</v>
       </c>
     </row>
@@ -1771,7 +1773,7 @@
         <v>2.97</v>
       </c>
       <c r="B149" s="1">
-        <f>-6.04340185362083/(A149^2)+11.0088604825831/A149+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.0603445502653204</v>
       </c>
     </row>
@@ -1780,7 +1782,7 @@
         <v>2.98</v>
       </c>
       <c r="B150" s="1">
-        <f>-6.04340185362083/(A150^2)+11.0088604825831/A150+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.0524964294097263</v>
       </c>
     </row>
@@ -1789,7 +1791,7 @@
         <v>2.99</v>
       </c>
       <c r="B151" s="1">
-        <f>-6.04340185362083/(A151^2)+11.0088604825831/A151+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.0446855288125863</v>
       </c>
     </row>
@@ -1798,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="B152" s="1">
-        <f>-6.04340185362083/(A152^2)+11.0088604825831/A152+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.036911628517464</v>
       </c>
     </row>
@@ -1807,7 +1809,7 @@
         <v>3.01</v>
       </c>
       <c r="B153" s="1">
-        <f>-6.04340185362083/(A153^2)+11.0088604825831/A153+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.0291745094744484</v>
       </c>
     </row>
@@ -1816,7 +1818,7 @@
         <v>3.02</v>
       </c>
       <c r="B154" s="1">
-        <f>-6.04340185362083/(A154^2)+11.0088604825831/A154+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.0214739535584212</v>
       </c>
     </row>
@@ -1825,7 +1827,7 @@
         <v>3.03</v>
       </c>
       <c r="B155" s="1">
-        <f>-6.04340185362083/(A155^2)+11.0088604825831/A155+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.013809743586304</v>
       </c>
     </row>
@@ -1834,7 +1836,7 @@
         <v>3.04</v>
       </c>
       <c r="B156" s="1">
-        <f>-6.04340185362083/(A156^2)+11.0088604825831/A156+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>1.0061816633333269</v>
       </c>
     </row>
@@ -1843,7 +1845,7 @@
         <v>3.05</v>
       </c>
       <c r="B157" s="1">
-        <f>-6.04340185362083/(A157^2)+11.0088604825831/A157+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.99858949754835247</v>
       </c>
     </row>
@@ -1852,7 +1854,7 @@
         <v>3.06</v>
       </c>
       <c r="B158" s="1">
-        <f>-6.04340185362083/(A158^2)+11.0088604825831/A158+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.99103303196829473</v>
       </c>
     </row>
@@ -1861,7 +1863,7 @@
         <v>3.07</v>
       </c>
       <c r="B159" s="1">
-        <f>-6.04340185362083/(A159^2)+11.0088604825831/A159+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.98351205333166392</v>
       </c>
     </row>
@@ -1870,7 +1872,7 @@
         <v>3.08</v>
       </c>
       <c r="B160" s="1">
-        <f>-6.04340185362083/(A160^2)+11.0088604825831/A160+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.97602634939127353</v>
       </c>
     </row>
@@ -1879,7 +1881,7 @@
         <v>3.09</v>
       </c>
       <c r="B161" s="1">
-        <f>-6.04340185362083/(A161^2)+11.0088604825831/A161+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.96857570892613798</v>
       </c>
     </row>
@@ -1888,7 +1890,7 @@
         <v>3.1</v>
       </c>
       <c r="B162" s="1">
-        <f>-6.04340185362083/(A162^2)+11.0088604825831/A162+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.96115992175259479</v>
       </c>
     </row>
@@ -1897,7 +1899,7 @@
         <v>3.11</v>
       </c>
       <c r="B163" s="1">
-        <f>-6.04340185362083/(A163^2)+11.0088604825831/A163+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.95377877873468164</v>
       </c>
     </row>
@@ -1906,7 +1908,7 @@
         <v>3.12</v>
       </c>
       <c r="B164" s="1">
-        <f>-6.04340185362083/(A164^2)+11.0088604825831/A164+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.94643207179379218</v>
       </c>
     </row>
@@ -1915,7 +1917,7 @@
         <v>3.13</v>
       </c>
       <c r="B165" s="1">
-        <f>-6.04340185362083/(A165^2)+11.0088604825831/A165+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.93911959391764488</v>
       </c>
     </row>
@@ -1924,7 +1926,7 @@
         <v>3.14</v>
       </c>
       <c r="B166" s="1">
-        <f>-6.04340185362083/(A166^2)+11.0088604825831/A166+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.93184113916858213</v>
       </c>
     </row>
@@ -1933,7 +1935,7 @@
         <v>3.15</v>
       </c>
       <c r="B167" s="1">
-        <f>-6.04340185362083/(A167^2)+11.0088604825831/A167+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.92459650269124061</v>
       </c>
     </row>
@@ -1942,7 +1944,7 @@
         <v>3.16</v>
       </c>
       <c r="B168" s="1">
-        <f>-6.04340185362083/(A168^2)+11.0088604825831/A168+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.91738548071959802</v>
       </c>
     </row>
@@ -1951,7 +1953,7 @@
         <v>3.17</v>
       </c>
       <c r="B169" s="1">
-        <f>-6.04340185362083/(A169^2)+11.0088604825831/A169+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.91020787058343688</v>
       </c>
     </row>
@@ -1960,7 +1962,7 @@
         <v>3.18</v>
       </c>
       <c r="B170" s="1">
-        <f>-6.04340185362083/(A170^2)+11.0088604825831/A170+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.9030634707142402</v>
       </c>
     </row>
@@ -1969,7 +1971,7 @@
         <v>3.19</v>
       </c>
       <c r="B171" s="1">
-        <f>-6.04340185362083/(A171^2)+11.0088604825831/A171+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.89595208065054099</v>
       </c>
     </row>
@@ -1978,7 +1980,7 @@
         <v>3.2</v>
       </c>
       <c r="B172" s="1">
-        <f>-6.04340185362083/(A172^2)+11.0088604825831/A172+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.88887350104274909</v>
       </c>
     </row>
@@ -1987,7 +1989,7 @@
         <v>3.21</v>
       </c>
       <c r="B173" s="1">
-        <f>-6.04340185362083/(A173^2)+11.0088604825831/A173+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.88182753365747968</v>
       </c>
     </row>
@@ -1996,7 +1998,7 @@
         <v>3.22</v>
       </c>
       <c r="B174" s="1">
-        <f>-6.04340185362083/(A174^2)+11.0088604825831/A174+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.87481398138139199</v>
       </c>
     </row>
@@ -2005,7 +2007,7 @@
         <v>3.23</v>
       </c>
       <c r="B175" s="1">
-        <f>-6.04340185362083/(A175^2)+11.0088604825831/A175+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.86783264822456974</v>
       </c>
     </row>
@@ -2014,7 +2016,7 @@
         <v>3.24</v>
       </c>
       <c r="B176" s="1">
-        <f>-6.04340185362083/(A176^2)+11.0088604825831/A176+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.86088333932345429</v>
       </c>
     </row>
@@ -2023,7 +2025,7 @@
         <v>3.25</v>
       </c>
       <c r="B177" s="1">
-        <f>-6.04340185362083/(A177^2)+11.0088604825831/A177+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.85396586094335469</v>
       </c>
     </row>
@@ -2032,7 +2034,7 @@
         <v>3.26</v>
       </c>
       <c r="B178" s="1">
-        <f>-6.04340185362083/(A178^2)+11.0088604825831/A178+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.84708002048053932</v>
       </c>
     </row>
@@ -2041,7 +2043,7 @@
         <v>3.27</v>
       </c>
       <c r="B179" s="1">
-        <f>-6.04340185362083/(A179^2)+11.0088604825831/A179+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.84022562646394028</v>
       </c>
     </row>
@@ -2050,7 +2052,7 @@
         <v>3.28</v>
       </c>
       <c r="B180" s="1">
-        <f>-6.04340185362083/(A180^2)+11.0088604825831/A180+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.83340248855648213</v>
       </c>
     </row>
@@ -2059,7 +2061,7 @@
         <v>3.29</v>
       </c>
       <c r="B181" s="1">
-        <f>-6.04340185362083/(A181^2)+11.0088604825831/A181+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.82661041755604114</v>
       </c>
     </row>
@@ -2068,7 +2070,7 @@
         <v>3.3</v>
       </c>
       <c r="B182" s="1">
-        <f>-6.04340185362083/(A182^2)+11.0088604825831/A182+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.81984922539606431</v>
       </c>
     </row>
@@ -2077,7 +2079,7 @@
         <v>3.31</v>
       </c>
       <c r="B183" s="1">
-        <f>-6.04340185362083/(A183^2)+11.0088604825831/A183+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.81311872514584826</v>
       </c>
     </row>
@@ -2086,7 +2088,7 @@
         <v>3.32</v>
       </c>
       <c r="B184" s="1">
-        <f>-6.04340185362083/(A184^2)+11.0088604825831/A184+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.80641873101050821</v>
       </c>
     </row>
@@ -2095,7 +2097,7 @@
         <v>3.33</v>
       </c>
       <c r="B185" s="1">
-        <f>-6.04340185362083/(A185^2)+11.0088604825831/A185+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.79974905833062926</v>
       </c>
     </row>
@@ -2104,7 +2106,7 @@
         <v>3.34</v>
       </c>
       <c r="B186" s="1">
-        <f>-6.04340185362083/(A186^2)+11.0088604825831/A186+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.79310952358163722</v>
       </c>
     </row>
@@ -2113,7 +2115,7 @@
         <v>3.35</v>
       </c>
       <c r="B187" s="1">
-        <f>-6.04340185362083/(A187^2)+11.0088604825831/A187+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.78649994437287618</v>
       </c>
     </row>
@@ -2122,7 +2124,7 @@
         <v>3.36</v>
       </c>
       <c r="B188" s="1">
-        <f>-6.04340185362083/(A188^2)+11.0088604825831/A188+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.77992013944642857</v>
       </c>
     </row>
@@ -2131,7 +2133,7 @@
         <v>3.37</v>
       </c>
       <c r="B189" s="1">
-        <f>-6.04340185362083/(A189^2)+11.0088604825831/A189+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.77336992867566789</v>
       </c>
     </row>
@@ -2140,7 +2142,7 @@
         <v>3.38</v>
       </c>
       <c r="B190" s="1">
-        <f>-6.04340185362083/(A190^2)+11.0088604825831/A190+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.76684913306357338</v>
       </c>
     </row>
@@ -2149,7 +2151,7 @@
         <v>3.39</v>
       </c>
       <c r="B191" s="1">
-        <f>-6.04340185362083/(A191^2)+11.0088604825831/A191+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.76035757474080357</v>
       </c>
     </row>
@@ -2158,7 +2160,7 @@
         <v>3.4</v>
       </c>
       <c r="B192" s="1">
-        <f>-6.04340185362083/(A192^2)+11.0088604825831/A192+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.75389507696354507</v>
       </c>
     </row>
@@ -2167,7 +2169,7 @@
         <v>3.41</v>
       </c>
       <c r="B193" s="1">
-        <f>-6.04340185362083/(A193^2)+11.0088604825831/A193+-1.96121943749681</f>
+        <f t="shared" si="2"/>
         <v>0.74746146411115189</v>
       </c>
     </row>
@@ -2176,7 +2178,7 @@
         <v>3.42</v>
       </c>
       <c r="B194" s="1">
-        <f>-6.04340185362083/(A194^2)+11.0088604825831/A194+-1.96121943749681</f>
+        <f t="shared" ref="B194:B257" si="3">-6.04340185362083/(A194^2)+11.0088604825831/A194+-1.96121943749681</f>
         <v>0.74105656168356782</v>
       </c>
     </row>
@@ -2185,7 +2187,7 @@
         <v>3.43</v>
       </c>
       <c r="B195" s="1">
-        <f>-6.04340185362083/(A195^2)+11.0088604825831/A195+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.73468019629856429</v>
       </c>
     </row>
@@ -2194,7 +2196,7 @@
         <v>3.44</v>
       </c>
       <c r="B196" s="1">
-        <f>-6.04340185362083/(A196^2)+11.0088604825831/A196+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.72833219568878271</v>
       </c>
     </row>
@@ -2203,7 +2205,7 @@
         <v>3.45</v>
       </c>
       <c r="B197" s="1">
-        <f>-6.04340185362083/(A197^2)+11.0088604825831/A197+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.72201238869859918</v>
       </c>
     </row>
@@ -2212,7 +2214,7 @@
         <v>3.46</v>
       </c>
       <c r="B198" s="1">
-        <f>-6.04340185362083/(A198^2)+11.0088604825831/A198+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.71572060528082182</v>
       </c>
     </row>
@@ -2221,7 +2223,7 @@
         <v>3.47</v>
       </c>
       <c r="B199" s="1">
-        <f>-6.04340185362083/(A199^2)+11.0088604825831/A199+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.70945667649321753</v>
       </c>
     </row>
@@ -2230,7 +2232,7 @@
         <v>3.48</v>
       </c>
       <c r="B200" s="1">
-        <f>-6.04340185362083/(A200^2)+11.0088604825831/A200+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.70322043449489624</v>
       </c>
     </row>
@@ -2239,7 +2241,7 @@
         <v>3.49</v>
       </c>
       <c r="B201" s="1">
-        <f>-6.04340185362083/(A201^2)+11.0088604825831/A201+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.69701171254253169</v>
       </c>
     </row>
@@ -2248,7 +2250,7 @@
         <v>3.5</v>
       </c>
       <c r="B202" s="1">
-        <f>-6.04340185362083/(A202^2)+11.0088604825831/A202+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.69083034498645701</v>
       </c>
     </row>
@@ -2257,7 +2259,7 @@
         <v>3.51</v>
       </c>
       <c r="B203" s="1">
-        <f>-6.04340185362083/(A203^2)+11.0088604825831/A203+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.68467616726661329</v>
       </c>
     </row>
@@ -2266,7 +2268,7 @@
         <v>3.52</v>
       </c>
       <c r="B204" s="1">
-        <f>-6.04340185362083/(A204^2)+11.0088604825831/A204+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.6785490159083809</v>
       </c>
     </row>
@@ -2275,7 +2277,7 @@
         <v>3.53</v>
       </c>
       <c r="B205" s="1">
-        <f>-6.04340185362083/(A205^2)+11.0088604825831/A205+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.67244872851828608</v>
       </c>
     </row>
@@ -2284,7 +2286,7 @@
         <v>3.54</v>
       </c>
       <c r="B206" s="1">
-        <f>-6.04340185362083/(A206^2)+11.0088604825831/A206+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.66637514377959062</v>
       </c>
     </row>
@@ -2293,7 +2295,7 @@
         <v>3.55</v>
       </c>
       <c r="B207" s="1">
-        <f>-6.04340185362083/(A207^2)+11.0088604825831/A207+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.6603281014477782</v>
       </c>
     </row>
@@ -2302,7 +2304,7 @@
         <v>3.56</v>
       </c>
       <c r="B208" s="1">
-        <f>-6.04340185362083/(A208^2)+11.0088604825831/A208+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.65430744234593408</v>
       </c>
     </row>
@@ -2311,7 +2313,7 @@
         <v>3.57</v>
       </c>
       <c r="B209" s="1">
-        <f>-6.04340185362083/(A209^2)+11.0088604825831/A209+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.6483130083600297</v>
       </c>
     </row>
@@ -2320,7 +2322,7 @@
         <v>3.58</v>
       </c>
       <c r="B210" s="1">
-        <f>-6.04340185362083/(A210^2)+11.0088604825831/A210+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.64234464243411193</v>
       </c>
     </row>
@@ -2329,7 +2331,7 @@
         <v>3.59</v>
       </c>
       <c r="B211" s="1">
-        <f>-6.04340185362083/(A211^2)+11.0088604825831/A211+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.63640218856541009</v>
       </c>
     </row>
@@ -2338,7 +2340,7 @@
         <v>3.6</v>
       </c>
       <c r="B212" s="1">
-        <f>-6.04340185362083/(A212^2)+11.0088604825831/A212+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.6304854917993572</v>
       </c>
     </row>
@@ -2347,7 +2349,7 @@
         <v>3.61</v>
       </c>
       <c r="B213" s="1">
-        <f>-6.04340185362083/(A213^2)+11.0088604825831/A213+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.62459439822453677</v>
       </c>
     </row>
@@ -2356,7 +2358,7 @@
         <v>3.62</v>
       </c>
       <c r="B214" s="1">
-        <f>-6.04340185362083/(A214^2)+11.0088604825831/A214+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.6187287549675522</v>
       </c>
     </row>
@@ -2365,7 +2367,7 @@
         <v>3.63</v>
       </c>
       <c r="B215" s="1">
-        <f>-6.04340185362083/(A215^2)+11.0088604825831/A215+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.61288841018783669</v>
       </c>
     </row>
@@ -2374,7 +2376,7 @@
         <v>3.64</v>
       </c>
       <c r="B216" s="1">
-        <f>-6.04340185362083/(A216^2)+11.0088604825831/A216+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.60707321307238815</v>
       </c>
     </row>
@@ -2383,7 +2385,7 @@
         <v>3.65</v>
       </c>
       <c r="B217" s="1">
-        <f>-6.04340185362083/(A217^2)+11.0088604825831/A217+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.60128301383045479</v>
       </c>
     </row>
@@ -2392,7 +2394,7 @@
         <v>3.66</v>
       </c>
       <c r="B218" s="1">
-        <f>-6.04340185362083/(A218^2)+11.0088604825831/A218+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.59551766368815451</v>
       </c>
     </row>
@@ -2401,7 +2403,7 @@
         <v>3.67</v>
       </c>
       <c r="B219" s="1">
-        <f>-6.04340185362083/(A219^2)+11.0088604825831/A219+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.58977701488305345</v>
       </c>
     </row>
@@ -2410,7 +2412,7 @@
         <v>3.68</v>
       </c>
       <c r="B220" s="1">
-        <f>-6.04340185362083/(A220^2)+11.0088604825831/A220+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.58406092065868509</v>
       </c>
     </row>
@@ -2419,7 +2421,7 @@
         <v>3.69</v>
       </c>
       <c r="B221" s="1">
-        <f>-6.04340185362083/(A221^2)+11.0088604825831/A221+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.57836923525903106</v>
       </c>
     </row>
@@ -2428,7 +2430,7 @@
         <v>3.7</v>
       </c>
       <c r="B222" s="1">
-        <f>-6.04340185362083/(A222^2)+11.0088604825831/A222+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.57270181392295894</v>
       </c>
     </row>
@@ -2437,7 +2439,7 @@
         <v>3.71</v>
       </c>
       <c r="B223" s="1">
-        <f>-6.04340185362083/(A223^2)+11.0088604825831/A223+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.56705851287862052</v>
       </c>
     </row>
@@ -2446,7 +2448,7 @@
         <v>3.72</v>
       </c>
       <c r="B224" s="1">
-        <f>-6.04340185362083/(A224^2)+11.0088604825831/A224+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.56143918933781678</v>
       </c>
     </row>
@@ -2455,7 +2457,7 @@
         <v>3.73</v>
       </c>
       <c r="B225" s="1">
-        <f>-6.04340185362083/(A225^2)+11.0088604825831/A225+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.55584370149032636</v>
       </c>
     </row>
@@ -2464,7 +2466,7 @@
         <v>3.74</v>
       </c>
       <c r="B226" s="1">
-        <f>-6.04340185362083/(A226^2)+11.0088604825831/A226+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.5502719084982115</v>
       </c>
     </row>
@@ -2473,7 +2475,7 @@
         <v>3.75</v>
       </c>
       <c r="B227" s="1">
-        <f>-6.04340185362083/(A227^2)+11.0088604825831/A227+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.54472367049009063</v>
       </c>
     </row>
@@ -2482,7 +2484,7 @@
         <v>3.76</v>
       </c>
       <c r="B228" s="1">
-        <f>-6.04340185362083/(A228^2)+11.0088604825831/A228+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.53919884855539268</v>
       </c>
     </row>
@@ -2491,7 +2493,7 @@
         <v>3.77</v>
       </c>
       <c r="B229" s="1">
-        <f>-6.04340185362083/(A229^2)+11.0088604825831/A229+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.53369730473858579</v>
       </c>
     </row>
@@ -2500,7 +2502,7 @@
         <v>3.78</v>
       </c>
       <c r="B230" s="1">
-        <f>-6.04340185362083/(A230^2)+11.0088604825831/A230+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.5282189020333885</v>
       </c>
     </row>
@@ -2509,7 +2511,7 @@
         <v>3.79</v>
       </c>
       <c r="B231" s="1">
-        <f>-6.04340185362083/(A231^2)+11.0088604825831/A231+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.5227635043769665</v>
       </c>
     </row>
@@ -2518,7 +2520,7 @@
         <v>3.8</v>
       </c>
       <c r="B232" s="1">
-        <f>-6.04340185362083/(A232^2)+11.0088604825831/A232+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.51733097664411454</v>
       </c>
     </row>
@@ -2527,7 +2529,7 @@
         <v>3.81</v>
       </c>
       <c r="B233" s="1">
-        <f>-6.04340185362083/(A233^2)+11.0088604825831/A233+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.51192118464142111</v>
       </c>
     </row>
@@ -2536,7 +2538,7 @@
         <v>3.82</v>
       </c>
       <c r="B234" s="1">
-        <f>-6.04340185362083/(A234^2)+11.0088604825831/A234+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.5065339951014336</v>
       </c>
     </row>
@@ -2545,7 +2547,7 @@
         <v>3.83</v>
       </c>
       <c r="B235" s="1">
-        <f>-6.04340185362083/(A235^2)+11.0088604825831/A235+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.50116927567680514</v>
       </c>
     </row>
@@ -2554,7 +2556,7 @@
         <v>3.84</v>
       </c>
       <c r="B236" s="1">
-        <f>-6.04340185362083/(A236^2)+11.0088604825831/A236+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.49582689493444199</v>
       </c>
     </row>
@@ -2563,7 +2565,7 @@
         <v>3.85</v>
       </c>
       <c r="B237" s="1">
-        <f>-6.04340185362083/(A237^2)+11.0088604825831/A237+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.49050672234964643</v>
       </c>
     </row>
@@ -2572,7 +2574,7 @@
         <v>3.86</v>
       </c>
       <c r="B238" s="1">
-        <f>-6.04340185362083/(A238^2)+11.0088604825831/A238+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.48520862830025391</v>
       </c>
     </row>
@@ -2581,7 +2583,7 @@
         <v>3.87</v>
       </c>
       <c r="B239" s="1">
-        <f>-6.04340185362083/(A239^2)+11.0088604825831/A239+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.47993248406077327</v>
       </c>
     </row>
@@ -2590,7 +2592,7 @@
         <v>3.88</v>
       </c>
       <c r="B240" s="1">
-        <f>-6.04340185362083/(A240^2)+11.0088604825831/A240+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.47467816179652611</v>
       </c>
     </row>
@@ -2599,7 +2601,7 @@
         <v>3.89</v>
       </c>
       <c r="B241" s="1">
-        <f>-6.04340185362083/(A241^2)+11.0088604825831/A241+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.46944553455779103</v>
       </c>
     </row>
@@ -2608,7 +2610,7 @@
         <v>3.9</v>
       </c>
       <c r="B242" s="1">
-        <f>-6.04340185362083/(A242^2)+11.0088604825831/A242+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.46423447627395009</v>
       </c>
     </row>
@@ -2617,7 +2619,7 @@
         <v>3.91</v>
       </c>
       <c r="B243" s="1">
-        <f>-6.04340185362083/(A243^2)+11.0088604825831/A243+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.45904486174764103</v>
       </c>
     </row>
@@ -2626,7 +2628,7 @@
         <v>3.92</v>
       </c>
       <c r="B244" s="1">
-        <f>-6.04340185362083/(A244^2)+11.0088604825831/A244+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.4538765666489184</v>
       </c>
     </row>
@@ -2635,7 +2637,7 @@
         <v>3.93</v>
       </c>
       <c r="B245" s="1">
-        <f>-6.04340185362083/(A245^2)+11.0088604825831/A245+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.44872946750942178</v>
       </c>
     </row>
@@ -2644,7 +2646,7 @@
         <v>3.94</v>
       </c>
       <c r="B246" s="1">
-        <f>-6.04340185362083/(A246^2)+11.0088604825831/A246+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.44360344171655464</v>
       </c>
     </row>
@@ -2653,7 +2655,7 @@
         <v>3.95</v>
       </c>
       <c r="B247" s="1">
-        <f>-6.04340185362083/(A247^2)+11.0088604825831/A247+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.43849836750767079</v>
       </c>
     </row>
@@ -2662,7 +2664,7 @@
         <v>3.96</v>
       </c>
       <c r="B248" s="1">
-        <f>-6.04340185362083/(A248^2)+11.0088604825831/A248+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.43341412396428125</v>
       </c>
     </row>
@@ -2671,7 +2673,7 @@
         <v>3.97</v>
       </c>
       <c r="B249" s="1">
-        <f>-6.04340185362083/(A249^2)+11.0088604825831/A249+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.42835059100626238</v>
       </c>
     </row>
@@ -2680,7 +2682,7 @@
         <v>3.98</v>
       </c>
       <c r="B250" s="1">
-        <f>-6.04340185362083/(A250^2)+11.0088604825831/A250+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.42330764938609078</v>
       </c>
     </row>
@@ -2689,7 +2691,7 @@
         <v>3.99</v>
       </c>
       <c r="B251" s="1">
-        <f>-6.04340185362083/(A251^2)+11.0088604825831/A251+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.41828518068308429</v>
       </c>
     </row>
@@ -2698,7 +2700,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="1">
-        <f>-6.04340185362083/(A252^2)+11.0088604825831/A252+-1.96121943749681</f>
+        <f t="shared" si="3"/>
         <v>0.41328306729766306</v>
       </c>
     </row>
